--- a/assets/templates/orders/v2/maps_aggregate.xlsx
+++ b/assets/templates/orders/v2/maps_aggregate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marete\Downloads\order-module\order_templates\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ADT\assets\templates\orders\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="229">
   <si>
     <t>MINISTRY OF HEALTH</t>
   </si>
@@ -1252,13 +1252,44 @@
   </si>
   <si>
     <t>This information is important for purposes of planning your stock orders and forecasting your requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central site Reporting rate:-     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total No. of Facility Reports Expected:</t>
+  </si>
+  <si>
+    <t>Actual No. of Facility reports Received:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">               (NB: Total no. of Facility reports Expected = Total number of Satellite sites </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the Central site Dispensing point)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1532,6 +1563,12 @@
       <u/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1757,11 +1794,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1770,9 +1804,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1859,18 +1890,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1891,9 +1910,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1998,11 +2014,41 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2010,66 +2056,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2078,15 +2064,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2184,6 +2161,90 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2501,1533 +2562,1567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P99"/>
+  <dimension ref="B1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="92.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="59.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="99.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="59.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="2.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="92.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="99.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="59.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="2.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="2:14" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
     </row>
     <row r="12" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="36" t="s">
+      <c r="C12" s="140"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="43">
+      <c r="C13" s="6"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="37">
         <v>1</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="50"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="47" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="47" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="47" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="47" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="56" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="56" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="56" t="s">
+      <c r="D21" s="51"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="90" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="43">
+      <c r="D23" s="51"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="37">
         <v>2</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="2:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="143" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="144" t="s">
+      <c r="G24" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="143" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="144" t="s">
+      <c r="G25" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="2:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="145" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="144" t="s">
+      <c r="G26" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="2:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="143" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="2:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="143" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="144" t="s">
+      <c r="G28" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="79"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="37" t="s">
+      <c r="D29" s="42"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="79"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="143" t="s">
+      <c r="D30" s="42"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="88" t="s">
+      <c r="G30" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="81"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
     </row>
     <row r="31" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="143" t="s">
+      <c r="D31" s="42"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="88" t="s">
+      <c r="G31" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="143" t="s">
+      <c r="D32" s="42"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="88" t="s">
+      <c r="G32" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="81"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="79"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" spans="2:12" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="37" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
     </row>
     <row r="34" spans="2:12" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="83">
+      <c r="D34" s="42"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="75">
         <v>1</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
     </row>
     <row r="35" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="77" t="s">
+      <c r="D35" s="77"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="88" t="s">
+      <c r="G35" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="61"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="77" t="s">
+      <c r="C36" s="67"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="88" t="s">
+      <c r="G36" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="61"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="2:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="91" t="s">
+      <c r="C37" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="143" t="s">
+      <c r="D37" s="42"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="144" t="s">
+      <c r="G37" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="52"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
     </row>
     <row r="38" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="83">
+      <c r="D38" s="42"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="75">
         <v>2</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="77" t="s">
+      <c r="D39" s="42"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="G39" s="92" t="s">
+      <c r="G39" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="77" t="s">
+      <c r="D40" s="42"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="G40" s="92" t="s">
+      <c r="G40" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="143" t="s">
+      <c r="D41" s="42"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="144" t="s">
+      <c r="G41" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="94" t="s">
+      <c r="D42" s="42"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="95"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="90" t="s">
+      <c r="D43" s="42"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H43" s="93"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="91" t="s">
+      <c r="C44" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="90" t="s">
+      <c r="D44" s="42"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="H44" s="93"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
     </row>
     <row r="45" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="91" t="s">
+      <c r="C45" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="100" t="s">
+      <c r="D45" s="51"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="101"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="23"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="91" t="s">
+      <c r="C46" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="41">
+      <c r="D46" s="51"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="35">
         <v>1</v>
       </c>
-      <c r="G46" s="104" t="s">
+      <c r="G46" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="H46" s="105"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="23"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="106" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="G47" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="106" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
     </row>
     <row r="49" spans="2:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="109" t="s">
+      <c r="B49" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="106" t="s">
+      <c r="C49" s="138"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="107" t="s">
+      <c r="G49" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="106" t="s">
+      <c r="C50" s="67"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="H50" s="52"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="41">
+      <c r="D51" s="42"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="35">
         <v>2</v>
       </c>
-      <c r="G51" s="112" t="s">
+      <c r="G51" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="H51" s="112"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
     </row>
     <row r="52" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="106" t="s">
+      <c r="D52" s="42"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="H52" s="52"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="2:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="106" t="s">
+      <c r="D53" s="42"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="G53" s="107" t="s">
+      <c r="G53" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="H53" s="52"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
     </row>
     <row r="54" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="113">
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="93">
         <v>3</v>
       </c>
-      <c r="G54" s="114" t="s">
+      <c r="G54" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="H54" s="115"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="30"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="28"/>
     </row>
     <row r="55" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="146" t="s">
+      <c r="D55" s="42"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="G55" s="147" t="s">
+      <c r="G55" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="H55" s="115"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
     </row>
     <row r="56" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="48" t="s">
+      <c r="C56" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="146" t="s">
+      <c r="D56" s="42"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="G56" s="147" t="s">
+      <c r="G56" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="H56" s="115"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
     </row>
     <row r="57" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
     </row>
     <row r="58" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
     </row>
     <row r="59" spans="2:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="119"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
     </row>
     <row r="60" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="119"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
     </row>
     <row r="61" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="119"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
     </row>
     <row r="62" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="119"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="117"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
     </row>
     <row r="63" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C63" s="142" t="s">
+      <c r="C63" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="119"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
     </row>
     <row r="64" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C64" s="142" t="s">
+      <c r="C64" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="119"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
     </row>
     <row r="65" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C65" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="119"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
     </row>
     <row r="66" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
     </row>
     <row r="67" spans="2:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="121"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
     </row>
     <row r="68" spans="2:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="118"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
     </row>
     <row r="69" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="66" t="s">
+      <c r="C69" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="121"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="117"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="61"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
     </row>
     <row r="70" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="122"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="118"/>
-      <c r="H70" s="117"/>
-      <c r="I70" s="123"/>
-      <c r="J70" s="123"/>
-      <c r="M70" s="124"/>
-      <c r="N70" s="124"/>
-      <c r="O70" s="125"/>
-      <c r="P70" s="8"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="103"/>
+      <c r="M70" s="104"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="105"/>
+      <c r="P70" s="6"/>
     </row>
     <row r="71" spans="2:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="90" t="s">
+      <c r="B71" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="57" t="s">
+      <c r="C71" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="120"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="117"/>
-      <c r="J71" s="8"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="97"/>
+      <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="M72" s="124"/>
-      <c r="N72" s="124"/>
-      <c r="O72" s="125"/>
-      <c r="P72" s="8"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="106"/>
+      <c r="G72" s="106"/>
+      <c r="H72" s="106"/>
+      <c r="M72" s="104"/>
+      <c r="N72" s="104"/>
+      <c r="O72" s="105"/>
+      <c r="P72" s="6"/>
     </row>
     <row r="73" spans="2:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="90" t="s">
+      <c r="B73" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="91" t="s">
+      <c r="C73" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="127"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="128"/>
-      <c r="M73" s="124"/>
-      <c r="N73" s="124"/>
-      <c r="O73" s="125"/>
-      <c r="P73" s="8"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="108"/>
+      <c r="M73" s="104"/>
+      <c r="N73" s="104"/>
+      <c r="O73" s="105"/>
+      <c r="P73" s="6"/>
     </row>
     <row r="74" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="90" t="s">
+      <c r="B74" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="C74" s="91" t="s">
+      <c r="C74" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="F74" s="129" t="s">
+      <c r="D74" s="42"/>
+      <c r="F74" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="G74" s="130"/>
+      <c r="G74" s="110"/>
     </row>
     <row r="75" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="90" t="s">
+      <c r="B75" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="C75" s="91" t="s">
+      <c r="C75" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="D75" s="49"/>
-      <c r="F75" s="120"/>
-      <c r="G75" s="131" t="s">
+      <c r="D75" s="42"/>
+      <c r="F75" s="100"/>
+      <c r="G75" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="H75" s="120"/>
-      <c r="J75" s="54"/>
+      <c r="H75" s="100"/>
+      <c r="J75" s="47"/>
     </row>
     <row r="76" spans="2:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="90" t="s">
+      <c r="B76" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="C76" s="91" t="s">
+      <c r="C76" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="D76" s="49"/>
-      <c r="F76" s="132" t="s">
+      <c r="D76" s="42"/>
+      <c r="F76" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="G76" s="130"/>
-      <c r="H76" s="121"/>
-      <c r="J76" s="8"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="101"/>
+      <c r="J76" s="6"/>
     </row>
     <row r="77" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="C77" s="91" t="s">
+      <c r="C77" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="49"/>
-      <c r="F77" s="132" t="s">
+      <c r="D77" s="42"/>
+      <c r="F77" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="G77" s="130"/>
-      <c r="H77" s="121"/>
-      <c r="J77" s="133"/>
+      <c r="G77" s="110"/>
+      <c r="H77" s="101"/>
+      <c r="J77" s="113"/>
     </row>
     <row r="78" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="C78" s="91" t="s">
+      <c r="C78" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="D78" s="49"/>
-      <c r="F78" s="132" t="s">
+      <c r="D78" s="42"/>
+      <c r="F78" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="G78" s="130"/>
-      <c r="H78" s="121"/>
-      <c r="J78" s="134"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="101"/>
+      <c r="J78" s="114"/>
     </row>
     <row r="79" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="91" t="s">
+      <c r="C79" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="D79" s="49"/>
-      <c r="F79" s="129" t="s">
+      <c r="D79" s="42"/>
+      <c r="F79" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="G79" s="130"/>
-      <c r="J79" s="133"/>
+      <c r="G79" s="110"/>
+      <c r="J79" s="113"/>
     </row>
     <row r="80" spans="2:16" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="C80" s="91" t="s">
+      <c r="C80" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="49"/>
-      <c r="F80" s="120"/>
-      <c r="G80" s="120"/>
-      <c r="H80" s="120"/>
-      <c r="I80" s="135"/>
-      <c r="J80" s="8"/>
+      <c r="D80" s="42"/>
+      <c r="F80" s="100"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="100"/>
+      <c r="I80" s="115"/>
+      <c r="J80" s="6"/>
     </row>
     <row r="81" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="90" t="s">
+      <c r="B81" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="49"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="121"/>
-      <c r="H81" s="121"/>
+      <c r="D81" s="42"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="101"/>
     </row>
     <row r="82" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="90" t="s">
+      <c r="B82" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="91" t="s">
+      <c r="C82" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="49"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="136"/>
-      <c r="H82" s="121"/>
+      <c r="D82" s="42"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="101"/>
     </row>
     <row r="83" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="42"/>
     </row>
     <row r="84" spans="2:8" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="B84" s="90" t="s">
+      <c r="B84" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C84" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="D84" s="49"/>
+      <c r="D84" s="42"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="128"/>
-      <c r="C85" s="128"/>
-      <c r="D85" s="128"/>
+      <c r="B85" s="108"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="108"/>
     </row>
     <row r="86" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B86" s="137"/>
-      <c r="C86" s="138"/>
-      <c r="D86" s="127"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="107"/>
     </row>
     <row r="87" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B87" s="129" t="s">
+      <c r="B87" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="130"/>
+      <c r="C87" s="110"/>
     </row>
     <row r="88" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C88" s="139"/>
+      <c r="C88" s="119"/>
     </row>
     <row r="89" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B89" s="132" t="s">
+      <c r="B89" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="C89" s="130"/>
+      <c r="C89" s="110"/>
     </row>
     <row r="90" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B90" s="132" t="s">
+      <c r="B90" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="C90" s="130"/>
+      <c r="C90" s="110"/>
     </row>
     <row r="91" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B91" s="132" t="s">
+      <c r="B91" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="C91" s="130"/>
+      <c r="C91" s="110"/>
     </row>
     <row r="92" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B92" s="129" t="s">
+      <c r="B92" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="C92" s="130"/>
+      <c r="C92" s="110"/>
     </row>
     <row r="93" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B93" s="140"/>
+      <c r="B93" s="120"/>
     </row>
     <row r="94" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B94" s="141" t="s">
+      <c r="B94" s="121" t="s">
         <v>220</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
     </row>
     <row r="95" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B97" s="17" t="s">
+    <row r="97" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B97" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B98" s="17" t="s">
+    <row r="98" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B98" s="15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B99" s="17"/>
+    <row r="99" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B99" s="15"/>
+    </row>
+    <row r="100" spans="2:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B100" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="149"/>
+      <c r="F100" s="150"/>
+      <c r="G100" s="150"/>
+      <c r="H100" s="103"/>
+    </row>
+    <row r="101" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B101" s="6"/>
+      <c r="C101" s="151" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" s="152"/>
+      <c r="E101" s="153"/>
+      <c r="G101" s="151" t="s">
+        <v>227</v>
+      </c>
+      <c r="H101" s="152"/>
+    </row>
+    <row r="102" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
+      <c r="C102" s="154"/>
+      <c r="D102" s="155" t="s">
+        <v>228</v>
+      </c>
+      <c r="E102" s="156"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="156"/>
+      <c r="H102" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I30:J30"/>
@@ -4035,12 +4130,12 @@
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I48:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
